--- a/BuildTool/Config/Item(1-100).xlsx
+++ b/BuildTool/Config/Item(1-100).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,10 +109,6 @@
   </si>
   <si>
     <t>长的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>only0_100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D14" activeCellId="1" sqref="A7:XFD7 D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -514,12 +510,12 @@
     <col min="5" max="5" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -532,11 +528,8 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -550,7 +543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -564,7 +557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -575,17 +568,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -599,7 +592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>2</v>
       </c>
@@ -610,7 +603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>7</v>
       </c>

--- a/BuildTool/Config/Item(1-100).xlsx
+++ b/BuildTool/Config/Item(1-100).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>附加定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>key1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,6 +105,10 @@
   </si>
   <si>
     <t>长的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +501,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" activeCellId="1" sqref="A7:XFD7 D14"/>
+      <selection activeCell="E13" sqref="E13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -540,7 +540,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -559,13 +559,13 @@
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -586,10 +586,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -597,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -611,7 +611,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>

--- a/BuildTool/Config/Item(1-100).xlsx
+++ b/BuildTool/Config/Item(1-100).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,10 @@
   </si>
   <si>
     <t>内容描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:F14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -559,61 +563,66 @@
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>10</v>
       </c>
     </row>

--- a/BuildTool/Config/Item(1-100).xlsx
+++ b/BuildTool/Config/Item(1-100).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,39 +80,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>key1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ItemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alias</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认值</t>
+    <t>alias|default="长的"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -544,7 +540,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -563,66 +559,61 @@
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
         <v>10</v>
       </c>
     </row>

--- a/BuildTool/Config/Item(1-100).xlsx
+++ b/BuildTool/Config/Item(1-100).xlsx
@@ -80,31 +80,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>道具1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ItemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -501,7 +501,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -540,7 +540,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -559,10 +559,10 @@
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -586,10 +586,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -597,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -611,7 +611,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>

--- a/BuildTool/Config/Item(1-100).xlsx
+++ b/BuildTool/Config/Item(1-100).xlsx
@@ -108,7 +108,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>alias|default="长的"</t>
+    <t>alias|default=长的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +501,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/BuildTool/Config/Item(1-100).xlsx
+++ b/BuildTool/Config/Item(1-100).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,14 +37,6 @@
   </si>
   <si>
     <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dev_jp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dev_bx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -501,7 +493,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -512,7 +504,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -520,32 +512,32 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -559,13 +551,13 @@
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -575,21 +567,18 @@
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -597,24 +586,21 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/BuildTool/Config/Item(1-100).xlsx
+++ b/BuildTool/Config/Item(1-100).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,30 @@
   </si>
   <si>
     <t>alias|default=长的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -502,12 +526,12 @@
     <col min="5" max="5" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -520,8 +544,11 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -534,8 +561,11 @@
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -548,8 +578,11 @@
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -560,17 +593,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>1</v>
       </c>
@@ -580,8 +613,11 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>2</v>
       </c>
@@ -591,8 +627,11 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>3</v>
       </c>
@@ -601,6 +640,9 @@
       </c>
       <c r="D10" t="s">
         <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
